--- a/data/pca/factorExposure/factorExposure_2009-03-16.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-03-16.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01731934882014842</v>
+        <v>-0.01691538014519469</v>
       </c>
       <c r="C2">
-        <v>0.002296861208265886</v>
+        <v>0.001650078373044505</v>
       </c>
       <c r="D2">
-        <v>0.008170469539208549</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.009073393931206647</v>
+      </c>
+      <c r="E2">
+        <v>0.01914120430991847</v>
+      </c>
+      <c r="F2">
+        <v>-0.007072622132597661</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,220 +751,316 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.08370401343803544</v>
+        <v>-0.08682963022566738</v>
       </c>
       <c r="C4">
-        <v>0.02015576735089426</v>
+        <v>0.01598755667348979</v>
       </c>
       <c r="D4">
-        <v>0.08539762222564377</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08840492666056748</v>
+      </c>
+      <c r="E4">
+        <v>-0.05065384536595206</v>
+      </c>
+      <c r="F4">
+        <v>0.01389360566746428</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>-0.0009869013093773207</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.0002797792550436741</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>-0.001058632032542813</v>
+      </c>
+      <c r="E5">
+        <v>-0.0008307472953727256</v>
+      </c>
+      <c r="F5">
+        <v>-0.002528592799827673</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1622649528875144</v>
+        <v>-0.1677757382171276</v>
       </c>
       <c r="C6">
-        <v>0.03905763811327719</v>
+        <v>0.03640185472276005</v>
       </c>
       <c r="D6">
-        <v>-0.02017071586511339</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.01088365653203957</v>
+      </c>
+      <c r="E6">
+        <v>-0.06081184270942298</v>
+      </c>
+      <c r="F6">
+        <v>0.0120731363575586</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.05532395861337785</v>
+        <v>-0.05996502571702551</v>
       </c>
       <c r="C7">
-        <v>0.001887560685437186</v>
+        <v>-0.001007833332569895</v>
       </c>
       <c r="D7">
-        <v>0.05217047718163845</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05650375840105376</v>
+      </c>
+      <c r="E7">
+        <v>-0.02999267413104395</v>
+      </c>
+      <c r="F7">
+        <v>0.05390193283208126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.05849428724691173</v>
+        <v>-0.05488416978413667</v>
       </c>
       <c r="C8">
-        <v>-0.009137350847560087</v>
+        <v>-0.01094459934908974</v>
       </c>
       <c r="D8">
-        <v>0.0366655650903628</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03710481880567758</v>
+      </c>
+      <c r="E8">
+        <v>0.02197930407710667</v>
+      </c>
+      <c r="F8">
+        <v>-0.02312680856947033</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.06405683222230672</v>
+        <v>-0.06752189239605218</v>
       </c>
       <c r="C9">
-        <v>0.01547313746301097</v>
+        <v>0.01148638512122075</v>
       </c>
       <c r="D9">
-        <v>0.08799556534070083</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.09172339933041766</v>
+      </c>
+      <c r="E9">
+        <v>-0.06664751792748799</v>
+      </c>
+      <c r="F9">
+        <v>0.02054932712422413</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.09785414522704666</v>
+        <v>-0.09373206441317641</v>
       </c>
       <c r="C10">
-        <v>0.02518415634550362</v>
+        <v>0.02605444370605188</v>
       </c>
       <c r="D10">
-        <v>-0.1602244069553294</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1521010997463487</v>
+      </c>
+      <c r="E10">
+        <v>0.0909960391399052</v>
+      </c>
+      <c r="F10">
+        <v>-0.01197730688175704</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.0854996453699548</v>
+        <v>-0.08329009468592605</v>
       </c>
       <c r="C11">
-        <v>0.01759374392147073</v>
+        <v>0.01255588609364919</v>
       </c>
       <c r="D11">
-        <v>0.1359358067156681</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1362341687276486</v>
+      </c>
+      <c r="E11">
+        <v>-0.03576020413074928</v>
+      </c>
+      <c r="F11">
+        <v>-0.01030940214593708</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.09013790864336879</v>
+        <v>-0.08570929204946659</v>
       </c>
       <c r="C12">
-        <v>0.01538817166412347</v>
+        <v>0.009804843603423638</v>
       </c>
       <c r="D12">
-        <v>0.1439826694608989</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.150906848216321</v>
+      </c>
+      <c r="E12">
+        <v>-0.03369412262112211</v>
+      </c>
+      <c r="F12">
+        <v>0.001630342629174675</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04186515504268772</v>
+        <v>-0.04247745022449449</v>
       </c>
       <c r="C13">
-        <v>0.00766335050719612</v>
+        <v>0.003784204526725707</v>
       </c>
       <c r="D13">
-        <v>0.05291307711057264</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05974692028674433</v>
+      </c>
+      <c r="E13">
+        <v>-0.004045201809520515</v>
+      </c>
+      <c r="F13">
+        <v>0.0151144935733012</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.01996693039295491</v>
+        <v>-0.02241351642363889</v>
       </c>
       <c r="C14">
-        <v>0.01519689709677242</v>
+        <v>0.01411055025580336</v>
       </c>
       <c r="D14">
-        <v>0.04085029764772363</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.04227761378064365</v>
+      </c>
+      <c r="E14">
+        <v>-0.0281978252641128</v>
+      </c>
+      <c r="F14">
+        <v>0.0007637419848667334</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.03212040599025316</v>
+        <v>-0.03338615978350101</v>
       </c>
       <c r="C15">
-        <v>0.008189963395290734</v>
+        <v>0.006599687041881086</v>
       </c>
       <c r="D15">
-        <v>0.05450450403318787</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.05365747364107925</v>
+      </c>
+      <c r="E15">
+        <v>-0.02535029903651061</v>
+      </c>
+      <c r="F15">
+        <v>0.01300423317310313</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.06647426771610451</v>
+        <v>-0.06605241394200352</v>
       </c>
       <c r="C16">
-        <v>0.006093019720664627</v>
+        <v>0.001206942007615677</v>
       </c>
       <c r="D16">
-        <v>0.1390772739514255</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1444725605214796</v>
+      </c>
+      <c r="E16">
+        <v>-0.04498947366034366</v>
+      </c>
+      <c r="F16">
+        <v>-0.01624116697782135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.002736194613976633</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>-0.001132883471113043</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.002797208959098071</v>
+      </c>
+      <c r="E17">
+        <v>0.0001339281947639784</v>
+      </c>
+      <c r="F17">
+        <v>-0.007173955317225988</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>-0.03138688455502273</v>
+        <v>-0.04762191755174275</v>
       </c>
       <c r="C18">
-        <v>0.0002912319492053758</v>
+        <v>0.0006006347438005123</v>
       </c>
       <c r="D18">
-        <v>0.03139332735903852</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.02783855654838071</v>
+      </c>
+      <c r="E18">
+        <v>0.01902491960170431</v>
+      </c>
+      <c r="F18">
+        <v>0.004417533187195298</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.06164658644207008</v>
+        <v>-0.06127279274641263</v>
       </c>
       <c r="C20">
-        <v>0.005339422289140962</v>
+        <v>0.00250057844873957</v>
       </c>
       <c r="D20">
-        <v>0.09654362521026061</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.09532089270241474</v>
+      </c>
+      <c r="E20">
+        <v>-0.0618941466350821</v>
+      </c>
+      <c r="F20">
+        <v>-0.008740124846585196</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.04205606823671854</v>
+        <v>-0.04372027106376295</v>
       </c>
       <c r="C21">
-        <v>0.01098339701767386</v>
+        <v>0.008350880518501682</v>
       </c>
       <c r="D21">
-        <v>0.04850651810285456</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.04838463780646855</v>
+      </c>
+      <c r="E21">
+        <v>0.01820161202161883</v>
+      </c>
+      <c r="F21">
+        <v>0.006257405401385581</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.04700411701453623</v>
+        <v>-0.04496516332813028</v>
       </c>
       <c r="C22">
-        <v>0.005456402364124737</v>
+        <v>0.002910932327583967</v>
       </c>
       <c r="D22">
-        <v>0.01228825317378813</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.01802177487842208</v>
+      </c>
+      <c r="E22">
+        <v>0.04092781794014989</v>
+      </c>
+      <c r="F22">
+        <v>-0.1254691249117419</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.04701314225809693</v>
+        <v>-0.04497283482081686</v>
       </c>
       <c r="C23">
-        <v>0.005458963977090631</v>
+        <v>0.002913258612943971</v>
       </c>
       <c r="D23">
-        <v>0.0122806210953812</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.01801570834914868</v>
+      </c>
+      <c r="E23">
+        <v>0.04095017298451175</v>
+      </c>
+      <c r="F23">
+        <v>-0.1255087737011261</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.07319867848180389</v>
+        <v>-0.07192513551017812</v>
       </c>
       <c r="C24">
-        <v>0.006756072987143933</v>
+        <v>0.00228925292061151</v>
       </c>
       <c r="D24">
-        <v>0.1354900915700838</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1350752717745426</v>
+      </c>
+      <c r="E24">
+        <v>-0.03895831264250296</v>
+      </c>
+      <c r="F24">
+        <v>0.002136271827366289</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.07958620551080374</v>
+        <v>-0.07721295349824156</v>
       </c>
       <c r="C25">
-        <v>0.009754386599619998</v>
+        <v>0.005327950168711349</v>
       </c>
       <c r="D25">
-        <v>0.1271873322412468</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1258866062497544</v>
+      </c>
+      <c r="E25">
+        <v>-0.02387524469005477</v>
+      </c>
+      <c r="F25">
+        <v>0.01700099941275504</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.05721266960200939</v>
+        <v>-0.06187653969089273</v>
       </c>
       <c r="C26">
-        <v>0.01929354774463853</v>
+        <v>0.01650101146691929</v>
       </c>
       <c r="D26">
-        <v>0.06546755245723332</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.0670689992355704</v>
+      </c>
+      <c r="E26">
+        <v>-0.00265262392086476</v>
+      </c>
+      <c r="F26">
+        <v>-0.01100066208084487</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1564082336642625</v>
+        <v>-0.1605376140105285</v>
       </c>
       <c r="C28">
-        <v>0.03056849944307967</v>
+        <v>0.03308852342572016</v>
       </c>
       <c r="D28">
-        <v>-0.2473011971642012</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2446490506890946</v>
+      </c>
+      <c r="E28">
+        <v>0.02373696115370696</v>
+      </c>
+      <c r="F28">
+        <v>0.04244383348636858</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.02619784435926398</v>
+        <v>-0.02791115577160245</v>
       </c>
       <c r="C29">
-        <v>0.01005307095618365</v>
+        <v>0.009436375549110391</v>
       </c>
       <c r="D29">
-        <v>0.03928703046687434</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03906846273196968</v>
+      </c>
+      <c r="E29">
+        <v>0.005718826579294589</v>
+      </c>
+      <c r="F29">
+        <v>-0.02293133912069932</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.04688872681181306</v>
+        <v>-0.04674155177624562</v>
       </c>
       <c r="C30">
-        <v>0.004966295294837745</v>
+        <v>0.001559749552375582</v>
       </c>
       <c r="D30">
-        <v>0.07882471682441332</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08187481070823997</v>
+      </c>
+      <c r="E30">
+        <v>-0.08590820595923672</v>
+      </c>
+      <c r="F30">
+        <v>0.06492660116468714</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.05197153155872458</v>
+        <v>-0.05242840837917958</v>
       </c>
       <c r="C31">
-        <v>0.01983922942681421</v>
+        <v>0.01749853941790107</v>
       </c>
       <c r="D31">
-        <v>0.03120492617223998</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.03464966962732268</v>
+      </c>
+      <c r="E31">
+        <v>-0.009421210625516869</v>
+      </c>
+      <c r="F31">
+        <v>-0.03069536109849925</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.04375714185650762</v>
+        <v>-0.04915122343777665</v>
       </c>
       <c r="C32">
-        <v>0.001484679120410671</v>
+        <v>-0.001083449703481812</v>
       </c>
       <c r="D32">
-        <v>0.03679738857672971</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.039034173441861</v>
+      </c>
+      <c r="E32">
+        <v>-0.01208565778494153</v>
+      </c>
+      <c r="F32">
+        <v>-0.02263579014750564</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.0837469007861545</v>
+        <v>-0.08598831293780598</v>
       </c>
       <c r="C33">
-        <v>0.01368300468020216</v>
+        <v>0.008554687003256987</v>
       </c>
       <c r="D33">
-        <v>0.1048904109507063</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1131980162181064</v>
+      </c>
+      <c r="E33">
+        <v>-0.04517072713418772</v>
+      </c>
+      <c r="F33">
+        <v>-0.01447700501576309</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.06027943475891672</v>
+        <v>-0.06105349833765111</v>
       </c>
       <c r="C34">
-        <v>0.01488749125927766</v>
+        <v>0.01023041905700009</v>
       </c>
       <c r="D34">
-        <v>0.1151340417214112</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1220994784301704</v>
+      </c>
+      <c r="E34">
+        <v>-0.03798702233397247</v>
+      </c>
+      <c r="F34">
+        <v>0.0223311752090392</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.02698545235265618</v>
+        <v>-0.02798038852118874</v>
       </c>
       <c r="C35">
-        <v>0.005266146668224834</v>
+        <v>0.004525513093280839</v>
       </c>
       <c r="D35">
-        <v>0.01260109095106714</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01488268822365532</v>
+      </c>
+      <c r="E35">
+        <v>-0.01029137693568938</v>
+      </c>
+      <c r="F35">
+        <v>-0.01893667556620825</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02320911059358622</v>
+        <v>-0.02781089793499862</v>
       </c>
       <c r="C36">
-        <v>0.00916499619324254</v>
+        <v>0.008089684723222596</v>
       </c>
       <c r="D36">
-        <v>0.04582433800075113</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.04859034009027596</v>
+      </c>
+      <c r="E36">
+        <v>-0.03731480857235709</v>
+      </c>
+      <c r="F36">
+        <v>-0.01308286431764498</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>-0.003439368003031923</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>-0.0008377844677985569</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.003744962673180018</v>
+      </c>
+      <c r="E37">
+        <v>0.001604355602766566</v>
+      </c>
+      <c r="F37">
+        <v>-0.0001128102608711283</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.09521709659553539</v>
+        <v>-0.08771690919719628</v>
       </c>
       <c r="C39">
-        <v>0.02075231212786026</v>
+        <v>0.01502280140612177</v>
       </c>
       <c r="D39">
-        <v>0.1684327249788026</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.162462725313528</v>
+      </c>
+      <c r="E39">
+        <v>-0.02634083580780557</v>
+      </c>
+      <c r="F39">
+        <v>-0.01733584621214418</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.04424991654007401</v>
+        <v>-0.04924317513530147</v>
       </c>
       <c r="C40">
-        <v>0.01249643516842597</v>
+        <v>0.01079230025977211</v>
       </c>
       <c r="D40">
-        <v>0.04529434639998054</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.04837998534309292</v>
+      </c>
+      <c r="E40">
+        <v>0.02024120145201203</v>
+      </c>
+      <c r="F40">
+        <v>0.0004988042692599852</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02715924043033532</v>
+        <v>-0.02906182272512407</v>
       </c>
       <c r="C41">
-        <v>0.00871078446668728</v>
+        <v>0.008079709505393197</v>
       </c>
       <c r="D41">
-        <v>0.02108682209054442</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.02137108981124764</v>
+      </c>
+      <c r="E41">
+        <v>0.008074813184810499</v>
+      </c>
+      <c r="F41">
+        <v>-0.005131861564343879</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,122 +1531,176 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.04211373133812128</v>
+        <v>-0.04079839018118155</v>
       </c>
       <c r="C43">
-        <v>0.009786784698093631</v>
+        <v>0.008707622458474498</v>
       </c>
       <c r="D43">
-        <v>0.03208392275228509</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.03119237270975785</v>
+      </c>
+      <c r="E43">
+        <v>0.00759077493377516</v>
+      </c>
+      <c r="F43">
+        <v>-0.02396827861333092</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.05683550503739215</v>
+        <v>-0.06549991099642194</v>
       </c>
       <c r="C44">
-        <v>0.02111277423310986</v>
+        <v>0.01834377252101235</v>
       </c>
       <c r="D44">
-        <v>0.07879143704777508</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.08784303974512084</v>
+      </c>
+      <c r="E44">
+        <v>-0.2257574809640322</v>
+      </c>
+      <c r="F44">
+        <v>0.06858303801000773</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>-0.0002107275263012483</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>3.629425074249417e-05</v>
       </c>
       <c r="D45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>2.567584365278068e-05</v>
+      </c>
+      <c r="E45">
+        <v>0.000450616836477002</v>
+      </c>
+      <c r="F45">
+        <v>0.0003115427695064329</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.02487994928672809</v>
+        <v>-0.02624149204430458</v>
       </c>
       <c r="C46">
-        <v>0.005347419369911365</v>
+        <v>0.004393793747173576</v>
       </c>
       <c r="D46">
-        <v>0.02600765669156317</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.02633845094541011</v>
+      </c>
+      <c r="E46">
+        <v>0.003281210598276262</v>
+      </c>
+      <c r="F46">
+        <v>-0.03243266695957395</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.05385934913474549</v>
+        <v>-0.05280492583952739</v>
       </c>
       <c r="C47">
-        <v>0.007609424299147487</v>
+        <v>0.005737243311801818</v>
       </c>
       <c r="D47">
-        <v>0.0218579378572127</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.02273796972323127</v>
+      </c>
+      <c r="E47">
+        <v>0.01322723039197344</v>
+      </c>
+      <c r="F47">
+        <v>-0.05298522842732679</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04845237851907903</v>
+        <v>-0.05231858696717559</v>
       </c>
       <c r="C48">
-        <v>0.006613138890936527</v>
+        <v>0.004158571537968654</v>
       </c>
       <c r="D48">
-        <v>0.06562885985743179</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.06327333240663738</v>
+      </c>
+      <c r="E48">
+        <v>-0.004291695679448175</v>
+      </c>
+      <c r="F48">
+        <v>0.02031306654713031</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.195131037455643</v>
+        <v>-0.1978622523851589</v>
       </c>
       <c r="C49">
-        <v>0.0303753942792938</v>
+        <v>0.02604054393329363</v>
       </c>
       <c r="D49">
-        <v>-0.005864928205442087</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.001487475295568893</v>
+      </c>
+      <c r="E49">
+        <v>-0.04806990005517028</v>
+      </c>
+      <c r="F49">
+        <v>0.03995364481578453</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.04964335513140195</v>
+        <v>-0.05244536153048859</v>
       </c>
       <c r="C50">
-        <v>0.01510925232298609</v>
+        <v>0.01339405221080529</v>
       </c>
       <c r="D50">
-        <v>0.02975918630939507</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.03225259651982165</v>
+      </c>
+      <c r="E50">
+        <v>-0.02024587993601231</v>
+      </c>
+      <c r="F50">
+        <v>-0.01776825462651007</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.1468240705716995</v>
+        <v>-0.1412204913111663</v>
       </c>
       <c r="C52">
-        <v>0.02569115713789446</v>
+        <v>0.02167475884223497</v>
       </c>
       <c r="D52">
-        <v>0.03968937732521222</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.0419770537916253</v>
+      </c>
+      <c r="E52">
+        <v>-0.05718958686033061</v>
+      </c>
+      <c r="F52">
+        <v>-0.01686750518205986</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1766829556553157</v>
+        <v>-0.1686791335230272</v>
       </c>
       <c r="C53">
-        <v>0.03092729629573667</v>
+        <v>0.0273209167795078</v>
       </c>
       <c r="D53">
-        <v>0.01029596693819409</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.01320466829221147</v>
+      </c>
+      <c r="E53">
+        <v>-0.1143801823267683</v>
+      </c>
+      <c r="F53">
+        <v>-0.00296664720175133</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.01397865195194904</v>
+        <v>-0.01688125141457199</v>
       </c>
       <c r="C54">
-        <v>0.01176805813119938</v>
+        <v>0.01111324829072293</v>
       </c>
       <c r="D54">
-        <v>0.03419763932592332</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03330623059224704</v>
+      </c>
+      <c r="E54">
+        <v>-0.005983007382794373</v>
+      </c>
+      <c r="F54">
+        <v>-0.01715415661427114</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.1200517748797077</v>
+        <v>-0.1174849737065575</v>
       </c>
       <c r="C55">
-        <v>0.02617567340597226</v>
+        <v>0.02335774149989752</v>
       </c>
       <c r="D55">
-        <v>0.009879174703127871</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.01770649122364966</v>
+      </c>
+      <c r="E55">
+        <v>-0.06709501722725685</v>
+      </c>
+      <c r="F55">
+        <v>-0.03870185153927874</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1805939973688792</v>
+        <v>-0.1747429951221462</v>
       </c>
       <c r="C56">
-        <v>0.0284967188737794</v>
+        <v>0.02526785812509925</v>
       </c>
       <c r="D56">
-        <v>-0.0008244027988768535</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.002102050012892493</v>
+      </c>
+      <c r="E56">
+        <v>-0.07323805646257399</v>
+      </c>
+      <c r="F56">
+        <v>-0.02751671430960076</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.04542718141479456</v>
+        <v>-0.04563397777920867</v>
       </c>
       <c r="C58">
-        <v>0.004748064975586695</v>
+        <v>0.0007645175945570306</v>
       </c>
       <c r="D58">
-        <v>0.09305965957053583</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.09767151938527592</v>
+      </c>
+      <c r="E58">
+        <v>0.01750555468825678</v>
+      </c>
+      <c r="F58">
+        <v>-0.03808953781856837</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1748993801426273</v>
+        <v>-0.1790723916275271</v>
       </c>
       <c r="C59">
-        <v>0.02994238880291497</v>
+        <v>0.031884369381871</v>
       </c>
       <c r="D59">
-        <v>-0.2066697223657056</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2057948180007548</v>
+      </c>
+      <c r="E59">
+        <v>0.07682816822761905</v>
+      </c>
+      <c r="F59">
+        <v>-0.01024529383206717</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2218542664638452</v>
+        <v>-0.2172893797571232</v>
       </c>
       <c r="C60">
-        <v>0.009521240760078488</v>
+        <v>0.004657418917875946</v>
       </c>
       <c r="D60">
-        <v>0.02150189821895427</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.02335777126090603</v>
+      </c>
+      <c r="E60">
+        <v>0.00488962409778885</v>
+      </c>
+      <c r="F60">
+        <v>0.005201513001331435</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.07282182472987951</v>
+        <v>-0.06865130758430146</v>
       </c>
       <c r="C61">
-        <v>0.01608940465675876</v>
+        <v>0.01118437676199999</v>
       </c>
       <c r="D61">
-        <v>0.1252219109163103</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1245898384115434</v>
+      </c>
+      <c r="E61">
+        <v>-0.01208474831678665</v>
+      </c>
+      <c r="F61">
+        <v>-0.02108296774068641</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1698205730429178</v>
+        <v>-0.166198768466842</v>
       </c>
       <c r="C62">
-        <v>0.03058599358389219</v>
+        <v>0.02717950419515864</v>
       </c>
       <c r="D62">
-        <v>0.006792440989597755</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.01134401962518093</v>
+      </c>
+      <c r="E62">
+        <v>-0.06757104759879254</v>
+      </c>
+      <c r="F62">
+        <v>-0.03682089255291422</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04115887805438281</v>
+        <v>-0.04675798919021329</v>
       </c>
       <c r="C63">
-        <v>0.005882927422010519</v>
+        <v>0.003583001125893457</v>
       </c>
       <c r="D63">
-        <v>0.07169264176602808</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.07571667658475904</v>
+      </c>
+      <c r="E63">
+        <v>-0.01269165065695213</v>
+      </c>
+      <c r="F63">
+        <v>-0.02311913194509611</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.1143137857979457</v>
+        <v>-0.1115158327690037</v>
       </c>
       <c r="C64">
-        <v>0.02053229535211579</v>
+        <v>0.01642454920122128</v>
       </c>
       <c r="D64">
-        <v>0.05442569861396102</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.05785373368462784</v>
+      </c>
+      <c r="E64">
+        <v>-0.03451275217292745</v>
+      </c>
+      <c r="F64">
+        <v>0.0007675725616853975</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1509881250993116</v>
+        <v>-0.1566002559317657</v>
       </c>
       <c r="C65">
-        <v>0.04467652664259555</v>
+        <v>0.04271297778520233</v>
       </c>
       <c r="D65">
-        <v>-0.05033571716272846</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.03921809628716116</v>
+      </c>
+      <c r="E65">
+        <v>-0.06778981748726295</v>
+      </c>
+      <c r="F65">
+        <v>-0.002055917822913184</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1162261890845616</v>
+        <v>-0.1067076872361006</v>
       </c>
       <c r="C66">
-        <v>0.01952581303553886</v>
+        <v>0.01314742090646441</v>
       </c>
       <c r="D66">
-        <v>0.1531476380244711</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1510638792794194</v>
+      </c>
+      <c r="E66">
+        <v>-0.03040024471459808</v>
+      </c>
+      <c r="F66">
+        <v>-0.01671271455754359</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.06027569866172797</v>
+        <v>-0.05145533543342292</v>
       </c>
       <c r="C67">
-        <v>0.006765712894832506</v>
+        <v>0.004010005369637107</v>
       </c>
       <c r="D67">
-        <v>0.06303620665760129</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05996677899026874</v>
+      </c>
+      <c r="E67">
+        <v>0.05108942854473125</v>
+      </c>
+      <c r="F67">
+        <v>-0.07172174153956962</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1256285886284308</v>
+        <v>-0.1311313638137922</v>
       </c>
       <c r="C68">
-        <v>0.0381520016135258</v>
+        <v>0.0421311050959494</v>
       </c>
       <c r="D68">
-        <v>-0.2555853024165336</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2542447880543806</v>
+      </c>
+      <c r="E68">
+        <v>0.03640708530318368</v>
+      </c>
+      <c r="F68">
+        <v>0.07298683997282844</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.03949888621534646</v>
+        <v>-0.03889870867678492</v>
       </c>
       <c r="C69">
-        <v>0.003742482988096649</v>
+        <v>0.002678850514091892</v>
       </c>
       <c r="D69">
-        <v>0.01178258701730235</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.01232707086794634</v>
+      </c>
+      <c r="E69">
+        <v>-0.01442237946981615</v>
+      </c>
+      <c r="F69">
+        <v>-0.05111351959827434</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.07181139488857685</v>
+        <v>-0.07266223824888264</v>
       </c>
       <c r="C70">
-        <v>-0.02133797793330981</v>
+        <v>-0.0232139062468525</v>
       </c>
       <c r="D70">
-        <v>0.0514319359933729</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.04714668225976804</v>
+      </c>
+      <c r="E70">
+        <v>0.3364836179023695</v>
+      </c>
+      <c r="F70">
+        <v>-0.1651208414312005</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1464268045700952</v>
+        <v>-0.1525693732810285</v>
       </c>
       <c r="C71">
-        <v>0.04437738762887743</v>
+        <v>0.04789053777661369</v>
       </c>
       <c r="D71">
-        <v>-0.2680177958615699</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.262389926025187</v>
+      </c>
+      <c r="E71">
+        <v>0.04242724385140859</v>
+      </c>
+      <c r="F71">
+        <v>0.0835046317971806</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1392048900403852</v>
+        <v>-0.1456638723189783</v>
       </c>
       <c r="C72">
-        <v>0.03472286760678523</v>
+        <v>0.03314263511902792</v>
       </c>
       <c r="D72">
-        <v>0.01384111373548523</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.01032060780185699</v>
+      </c>
+      <c r="E72">
+        <v>-0.06258361578403543</v>
+      </c>
+      <c r="F72">
+        <v>-0.02797947990654523</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.1929241275171898</v>
+        <v>-0.1988078823501273</v>
       </c>
       <c r="C73">
-        <v>0.0229659895957647</v>
+        <v>0.01740919504375484</v>
       </c>
       <c r="D73">
-        <v>0.01823182383661475</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.02362919691021033</v>
+      </c>
+      <c r="E73">
+        <v>-0.06501185204457825</v>
+      </c>
+      <c r="F73">
+        <v>-0.05206811169291174</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.08875822875069178</v>
+        <v>-0.0888973520124028</v>
       </c>
       <c r="C74">
-        <v>0.01750070022451623</v>
+        <v>0.01528512203299807</v>
       </c>
       <c r="D74">
-        <v>0.0201809081268401</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.0242621211548737</v>
+      </c>
+      <c r="E74">
+        <v>-0.07969415928668334</v>
+      </c>
+      <c r="F74">
+        <v>-0.01498513344378229</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1281606901781674</v>
+        <v>-0.1206102766142711</v>
       </c>
       <c r="C75">
-        <v>0.0358724058759225</v>
+        <v>0.03206714459209966</v>
       </c>
       <c r="D75">
-        <v>0.0338968346508146</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03662988556183695</v>
+      </c>
+      <c r="E75">
+        <v>-0.06243301708393908</v>
+      </c>
+      <c r="F75">
+        <v>-0.06070071941307521</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.07588618326186783</v>
+        <v>-0.08991172705355251</v>
       </c>
       <c r="C77">
-        <v>0.01462555528390176</v>
+        <v>0.0113748202759181</v>
       </c>
       <c r="D77">
-        <v>0.1206151074932744</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1201385825306172</v>
+      </c>
+      <c r="E77">
+        <v>-0.05228070915443681</v>
+      </c>
+      <c r="F77">
+        <v>0.01966910289494572</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.09803545483634316</v>
+        <v>-0.0999217935502676</v>
       </c>
       <c r="C78">
-        <v>0.04433576304780433</v>
+        <v>0.04104708373225305</v>
       </c>
       <c r="D78">
-        <v>0.1518450337716231</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1434083354565359</v>
+      </c>
+      <c r="E78">
+        <v>-0.0542599390690345</v>
+      </c>
+      <c r="F78">
+        <v>0.03664259076148505</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1681278248037582</v>
+        <v>-0.1637444813101356</v>
       </c>
       <c r="C79">
-        <v>0.03391703919118902</v>
+        <v>0.02999323238240516</v>
       </c>
       <c r="D79">
-        <v>0.02088887777724926</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.02418792139622813</v>
+      </c>
+      <c r="E79">
+        <v>-0.03832754980046076</v>
+      </c>
+      <c r="F79">
+        <v>-0.03598409970694069</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.07949465144567688</v>
+        <v>-0.0767946019923663</v>
       </c>
       <c r="C80">
-        <v>0.004951155947853996</v>
+        <v>0.002050267352539568</v>
       </c>
       <c r="D80">
-        <v>0.05362688256749844</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05356956298174509</v>
+      </c>
+      <c r="E80">
+        <v>0.01893290339432017</v>
+      </c>
+      <c r="F80">
+        <v>-0.05171264727339566</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1150229591909624</v>
+        <v>-0.1092817331969041</v>
       </c>
       <c r="C81">
-        <v>0.03700547203977402</v>
+        <v>0.0348944496178217</v>
       </c>
       <c r="D81">
-        <v>0.004822149684575488</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01019977000615216</v>
+      </c>
+      <c r="E81">
+        <v>-0.04823993028650114</v>
+      </c>
+      <c r="F81">
+        <v>-0.060749877786682</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1610877290139587</v>
+        <v>-0.1593457937544127</v>
       </c>
       <c r="C82">
-        <v>0.03380530539620101</v>
+        <v>0.03045724164716205</v>
       </c>
       <c r="D82">
-        <v>-0.004169179634056221</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.0005437525599403316</v>
+      </c>
+      <c r="E82">
+        <v>-0.1007925037103482</v>
+      </c>
+      <c r="F82">
+        <v>0.0001818996066754683</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.05665866017207118</v>
+        <v>-0.05204043231549003</v>
       </c>
       <c r="C83">
-        <v>0.006690132833233396</v>
+        <v>0.004245113967391198</v>
       </c>
       <c r="D83">
-        <v>0.05147047209089096</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.04866161840363455</v>
+      </c>
+      <c r="E83">
+        <v>0.02329744291254419</v>
+      </c>
+      <c r="F83">
+        <v>-0.009237914062969789</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.05463001329962408</v>
+        <v>-0.05106970501158714</v>
       </c>
       <c r="C84">
-        <v>0.01395509603943119</v>
+        <v>0.01122647611859665</v>
       </c>
       <c r="D84">
-        <v>0.07790291457696565</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.07553648084625349</v>
+      </c>
+      <c r="E84">
+        <v>-0.007276753721636904</v>
+      </c>
+      <c r="F84">
+        <v>-0.005030249770805587</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1390690855658419</v>
+        <v>-0.1337957562411</v>
       </c>
       <c r="C85">
-        <v>0.03704858528420019</v>
+        <v>0.03391316568464171</v>
       </c>
       <c r="D85">
-        <v>0.01345337976635901</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.01699444246710271</v>
+      </c>
+      <c r="E85">
+        <v>-0.08174834774321869</v>
+      </c>
+      <c r="F85">
+        <v>-0.01532428697758148</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.08591469258137044</v>
+        <v>-0.08196521123068107</v>
       </c>
       <c r="C86">
-        <v>-0.002183040765724536</v>
+        <v>-0.006513824512673406</v>
       </c>
       <c r="D86">
-        <v>0.06951664456073844</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.07732318846725439</v>
+      </c>
+      <c r="E86">
+        <v>0.5562471571193845</v>
+      </c>
+      <c r="F86">
+        <v>-0.5923842066129013</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.0886818845438045</v>
+        <v>-0.08900735450863487</v>
       </c>
       <c r="C87">
-        <v>0.02886530984378845</v>
+        <v>0.02413940662524704</v>
       </c>
       <c r="D87">
-        <v>0.08475527899498599</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.08545993298845175</v>
+      </c>
+      <c r="E87">
+        <v>-0.005774302692330729</v>
+      </c>
+      <c r="F87">
+        <v>0.1075371944742903</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.06284409767254329</v>
+        <v>-0.06172256599622526</v>
       </c>
       <c r="C88">
-        <v>0.007487787245381416</v>
+        <v>0.004948304822723723</v>
       </c>
       <c r="D88">
-        <v>0.06551298513117035</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.06302041402805204</v>
+      </c>
+      <c r="E88">
+        <v>-0.01459118426144655</v>
+      </c>
+      <c r="F88">
+        <v>-0.01023101343077599</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1328137189745442</v>
+        <v>-0.137789161231599</v>
       </c>
       <c r="C89">
-        <v>0.01761105107685157</v>
+        <v>0.0216972168475904</v>
       </c>
       <c r="D89">
-        <v>-0.2292387648457923</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2334468293660696</v>
+      </c>
+      <c r="E89">
+        <v>0.04273412441634616</v>
+      </c>
+      <c r="F89">
+        <v>0.0805096554613592</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1573808390511112</v>
+        <v>-0.1674462685762934</v>
       </c>
       <c r="C90">
-        <v>0.04072084152121391</v>
+        <v>0.04500614996640482</v>
       </c>
       <c r="D90">
-        <v>-0.2570893876620792</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2583499730871262</v>
+      </c>
+      <c r="E90">
+        <v>0.07094636227181943</v>
+      </c>
+      <c r="F90">
+        <v>0.1140352108566944</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1262951103086944</v>
+        <v>-0.1212233555935837</v>
       </c>
       <c r="C91">
-        <v>0.02790228472451217</v>
+        <v>0.02572566832806258</v>
       </c>
       <c r="D91">
-        <v>-0.01198415273102847</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.008803637012969137</v>
+      </c>
+      <c r="E91">
+        <v>-0.03806803245784041</v>
+      </c>
+      <c r="F91">
+        <v>-0.09155687848016246</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1552566973853283</v>
+        <v>-0.1586266928141768</v>
       </c>
       <c r="C92">
-        <v>0.03110432066896932</v>
+        <v>0.03510195656591684</v>
       </c>
       <c r="D92">
-        <v>-0.2872510330787068</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2906243181480902</v>
+      </c>
+      <c r="E92">
+        <v>0.05405366127531041</v>
+      </c>
+      <c r="F92">
+        <v>0.07034448502076851</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1620866202024278</v>
+        <v>-0.1705294440788121</v>
       </c>
       <c r="C93">
-        <v>0.03685248799572347</v>
+        <v>0.0398723487299289</v>
       </c>
       <c r="D93">
-        <v>-0.2458310466229919</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2492647261707505</v>
+      </c>
+      <c r="E93">
+        <v>0.02832793250457098</v>
+      </c>
+      <c r="F93">
+        <v>0.05609125058852536</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1257568690484332</v>
+        <v>-0.118854483394211</v>
       </c>
       <c r="C94">
-        <v>0.03107172579244055</v>
+        <v>0.02704861835853547</v>
       </c>
       <c r="D94">
-        <v>0.04865860716220026</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04982202729300425</v>
+      </c>
+      <c r="E94">
+        <v>-0.06083648855121102</v>
+      </c>
+      <c r="F94">
+        <v>-0.05915213035528821</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1263922672425809</v>
+        <v>-0.1286097580460906</v>
       </c>
       <c r="C95">
-        <v>0.01410549519088775</v>
+        <v>0.008509460590839426</v>
       </c>
       <c r="D95">
-        <v>0.1118768490013283</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1187826289767163</v>
+      </c>
+      <c r="E95">
+        <v>-0.01407834325957233</v>
+      </c>
+      <c r="F95">
+        <v>-0.03807621555290039</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.1722584527931582</v>
+        <v>-0.153347741679553</v>
       </c>
       <c r="C96">
-        <v>-0.9794110971667264</v>
+        <v>-0.98161489285263</v>
       </c>
       <c r="D96">
-        <v>-0.0307089711301095</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.05157123610453686</v>
+      </c>
+      <c r="E96">
+        <v>-0.06399934813585913</v>
+      </c>
+      <c r="F96">
+        <v>-0.01128517620336924</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1923628751830877</v>
+        <v>-0.1951110115090628</v>
       </c>
       <c r="C97">
-        <v>0.006404512203542812</v>
+        <v>0.001801343958388227</v>
       </c>
       <c r="D97">
-        <v>-0.02335596311347071</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.01614279332258982</v>
+      </c>
+      <c r="E97">
+        <v>0.1343411459362037</v>
+      </c>
+      <c r="F97">
+        <v>-0.1073445197282629</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.1887771728117751</v>
+        <v>-0.1968177732161893</v>
       </c>
       <c r="C98">
-        <v>0.01807822001544149</v>
+        <v>0.01283438624131166</v>
       </c>
       <c r="D98">
-        <v>-0.001609375975910649</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.002800894769415213</v>
+      </c>
+      <c r="E98">
+        <v>0.1306914080284095</v>
+      </c>
+      <c r="F98">
+        <v>0.06369330001621862</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.05610933655148374</v>
+        <v>-0.05607851886860072</v>
       </c>
       <c r="C99">
-        <v>-0.0004891146363953263</v>
+        <v>-0.002631136271732149</v>
       </c>
       <c r="D99">
-        <v>0.05567135102291725</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.05685184548429007</v>
+      </c>
+      <c r="E99">
+        <v>-0.004895076415111282</v>
+      </c>
+      <c r="F99">
+        <v>-0.006500316577153533</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.1186681051381881</v>
+        <v>-0.1114409841312161</v>
       </c>
       <c r="C100">
-        <v>-0.03312076442046991</v>
+        <v>-0.04053590474431511</v>
       </c>
       <c r="D100">
-        <v>0.3086499796639181</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.2922955187091487</v>
+      </c>
+      <c r="E100">
+        <v>0.5668226138944363</v>
+      </c>
+      <c r="F100">
+        <v>0.6710975457167764</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.02621353720766752</v>
+        <v>-0.0279790172809288</v>
       </c>
       <c r="C101">
-        <v>0.01006903921481963</v>
+        <v>0.009471492520910674</v>
       </c>
       <c r="D101">
-        <v>0.03875111573772194</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03856370643623511</v>
+      </c>
+      <c r="E101">
+        <v>0.008028785451755522</v>
+      </c>
+      <c r="F101">
+        <v>-0.0241352348954752</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
